--- a/src/main/resources/FeatureFiles/DownloadStartTodayPageKubernetesOperatorTabTestCases.xlsx
+++ b/src/main/resources/FeatureFiles/DownloadStartTodayPageKubernetesOperatorTabTestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gurcharan/Desktop/CouchBase/src/main/resources/FeatureFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD4BEE1-C4BE-4644-B547-D71B0C5478C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A6E0D2-3EBD-1041-875F-995F4533B67F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="104">
   <si>
     <t>Test Case Id</t>
   </si>
@@ -58,12 +58,6 @@
   </si>
   <si>
     <t>textBoxMustHaveValue</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>All fields are valid</t>
   </si>
   <si>
     <t>gotoUrl</t>
@@ -337,6 +331,9 @@
   </si>
   <si>
     <t>{BaseURL}+/downloads/start-today/</t>
+  </si>
+  <si>
+    <t>Tags</t>
   </si>
 </sst>
 </file>
@@ -726,8 +723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1272"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -753,29 +750,27 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>13</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -783,7 +778,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -791,12 +786,12 @@
         <v>6</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -804,7 +799,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -812,7 +807,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -820,12 +815,12 @@
         <v>4</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>10</v>
@@ -833,13 +828,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -847,7 +842,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -855,7 +850,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -863,10 +858,10 @@
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
@@ -874,10 +869,10 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
@@ -885,10 +880,10 @@
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
@@ -896,7 +891,7 @@
         <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
@@ -904,12 +899,12 @@
         <v>4</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
@@ -917,10 +912,10 @@
         <v>5</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
@@ -928,10 +923,10 @@
         <v>11</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
@@ -939,10 +934,10 @@
         <v>5</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
@@ -950,10 +945,10 @@
         <v>11</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
@@ -961,10 +956,10 @@
         <v>5</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.2">
@@ -972,10 +967,10 @@
         <v>11</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
@@ -983,10 +978,10 @@
         <v>5</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.2">
@@ -994,10 +989,10 @@
         <v>11</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.2">
@@ -1005,7 +1000,7 @@
         <v>5</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>8</v>
@@ -1016,7 +1011,7 @@
         <v>11</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>8</v>
@@ -1027,10 +1022,10 @@
         <v>7</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -1038,10 +1033,10 @@
         <v>7</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -1049,7 +1044,7 @@
         <v>9</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D34" s="3"/>
     </row>
@@ -1058,7 +1053,7 @@
         <v>9</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -1066,7 +1061,7 @@
         <v>4</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -1074,13 +1069,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -1088,7 +1083,7 @@
         <v>9</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -1096,7 +1091,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -1104,10 +1099,10 @@
         <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -1115,10 +1110,10 @@
         <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -1126,10 +1121,10 @@
         <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -1137,7 +1132,7 @@
         <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -1145,12 +1140,12 @@
         <v>4</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B46" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -1158,10 +1153,10 @@
         <v>7</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -1169,7 +1164,7 @@
         <v>4</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D48" s="3"/>
     </row>
@@ -1178,10 +1173,10 @@
         <v>5</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.2">
@@ -1189,10 +1184,10 @@
         <v>11</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.2">
@@ -1200,10 +1195,10 @@
         <v>5</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.2">
@@ -1211,10 +1206,10 @@
         <v>11</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.2">
@@ -1222,10 +1217,10 @@
         <v>5</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.2">
@@ -1233,10 +1228,10 @@
         <v>11</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.2">
@@ -1244,10 +1239,10 @@
         <v>5</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.2">
@@ -1255,10 +1250,10 @@
         <v>11</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.2">
@@ -1266,10 +1261,10 @@
         <v>5</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.2">
@@ -1277,10 +1272,10 @@
         <v>11</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.2">
@@ -1288,7 +1283,7 @@
         <v>5</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>8</v>
@@ -1299,7 +1294,7 @@
         <v>11</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>8</v>
@@ -1310,10 +1305,10 @@
         <v>7</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.2">
@@ -1321,7 +1316,7 @@
         <v>9</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D62" s="3"/>
     </row>
@@ -1330,7 +1325,7 @@
         <v>9</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.2">
@@ -1338,7 +1333,7 @@
         <v>4</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -1346,13 +1341,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -1360,7 +1355,7 @@
         <v>9</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -1368,7 +1363,7 @@
         <v>4</v>
       </c>
       <c r="C68" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -1376,10 +1371,10 @@
         <v>7</v>
       </c>
       <c r="C69" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -1387,10 +1382,10 @@
         <v>7</v>
       </c>
       <c r="C70" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -1398,10 +1393,10 @@
         <v>7</v>
       </c>
       <c r="C71" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -1409,7 +1404,7 @@
         <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -1417,12 +1412,12 @@
         <v>4</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B74" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -1430,10 +1425,10 @@
         <v>5</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -1441,10 +1436,10 @@
         <v>11</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -1452,10 +1447,10 @@
         <v>5</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -1463,10 +1458,10 @@
         <v>11</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -1474,10 +1469,10 @@
         <v>5</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -1485,10 +1480,10 @@
         <v>11</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -1496,10 +1491,10 @@
         <v>5</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -1507,10 +1502,10 @@
         <v>11</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -1518,7 +1513,7 @@
         <v>5</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>8</v>
@@ -1529,7 +1524,7 @@
         <v>11</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>8</v>
@@ -1540,10 +1535,10 @@
         <v>7</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -1551,10 +1546,10 @@
         <v>7</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -1562,7 +1557,7 @@
         <v>4</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -1570,10 +1565,10 @@
         <v>7</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -1581,7 +1576,7 @@
         <v>4</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D89" s="5"/>
     </row>
@@ -1590,7 +1585,7 @@
         <v>9</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D90" s="5"/>
     </row>
@@ -1599,7 +1594,7 @@
         <v>9</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D91" s="3"/>
     </row>
@@ -1608,7 +1603,7 @@
         <v>9</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -1616,7 +1611,7 @@
         <v>4</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -1625,13 +1620,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -1639,7 +1634,7 @@
         <v>9</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.2">
@@ -1647,7 +1642,7 @@
         <v>4</v>
       </c>
       <c r="C97" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.2">
@@ -1655,10 +1650,10 @@
         <v>7</v>
       </c>
       <c r="C98" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.2">
@@ -1666,10 +1661,10 @@
         <v>7</v>
       </c>
       <c r="C99" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.2">
@@ -1677,10 +1672,10 @@
         <v>7</v>
       </c>
       <c r="C100" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.2">
@@ -1688,7 +1683,7 @@
         <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.2">
@@ -1696,12 +1691,12 @@
         <v>4</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B103" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.2">
@@ -1709,10 +1704,10 @@
         <v>5</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.2">
@@ -1720,10 +1715,10 @@
         <v>11</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.2">
@@ -1731,10 +1726,10 @@
         <v>5</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.2">
@@ -1742,10 +1737,10 @@
         <v>11</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.2">
@@ -1753,10 +1748,10 @@
         <v>5</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="109" spans="2:4" x14ac:dyDescent="0.2">
@@ -1764,10 +1759,10 @@
         <v>11</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.2">
@@ -1775,7 +1770,7 @@
         <v>5</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>8</v>
@@ -1786,7 +1781,7 @@
         <v>11</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>8</v>
@@ -1797,10 +1792,10 @@
         <v>7</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -1808,10 +1803,10 @@
         <v>7</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -1819,7 +1814,7 @@
         <v>9</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D114" s="3"/>
     </row>
@@ -1828,7 +1823,7 @@
         <v>9</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -1836,7 +1831,7 @@
         <v>4</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
@@ -1844,13 +1839,13 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
@@ -1858,7 +1853,7 @@
         <v>9</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
@@ -1866,7 +1861,7 @@
         <v>4</v>
       </c>
       <c r="C120" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
@@ -1874,10 +1869,10 @@
         <v>7</v>
       </c>
       <c r="C121" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
@@ -1885,10 +1880,10 @@
         <v>7</v>
       </c>
       <c r="C122" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
@@ -1896,10 +1891,10 @@
         <v>7</v>
       </c>
       <c r="C123" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
@@ -1907,7 +1902,7 @@
         <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
@@ -1915,12 +1910,12 @@
         <v>4</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B126" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
@@ -1928,10 +1923,10 @@
         <v>5</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
@@ -1939,10 +1934,10 @@
         <v>11</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
@@ -1950,10 +1945,10 @@
         <v>5</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
@@ -1961,10 +1956,10 @@
         <v>11</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
@@ -1972,10 +1967,10 @@
         <v>5</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
@@ -1983,10 +1978,10 @@
         <v>11</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
@@ -1994,7 +1989,7 @@
         <v>5</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>8</v>
@@ -2005,7 +2000,7 @@
         <v>11</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>8</v>
@@ -2016,10 +2011,10 @@
         <v>7</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
@@ -2027,10 +2022,10 @@
         <v>7</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
@@ -2038,7 +2033,7 @@
         <v>9</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D137" s="3"/>
     </row>
@@ -2047,7 +2042,7 @@
         <v>9</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
@@ -2055,7 +2050,7 @@
         <v>4</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
@@ -2064,13 +2059,13 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
@@ -2078,7 +2073,7 @@
         <v>9</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
@@ -2086,7 +2081,7 @@
         <v>4</v>
       </c>
       <c r="C143" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
@@ -2094,10 +2089,10 @@
         <v>7</v>
       </c>
       <c r="C144" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="145" spans="2:4" x14ac:dyDescent="0.2">
@@ -2105,10 +2100,10 @@
         <v>7</v>
       </c>
       <c r="C145" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="146" spans="2:4" x14ac:dyDescent="0.2">
@@ -2116,10 +2111,10 @@
         <v>7</v>
       </c>
       <c r="C146" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="147" spans="2:4" x14ac:dyDescent="0.2">
@@ -2127,7 +2122,7 @@
         <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="148" spans="2:4" x14ac:dyDescent="0.2">
@@ -2135,12 +2130,12 @@
         <v>4</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="149" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B149" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="150" spans="2:4" x14ac:dyDescent="0.2">
@@ -2148,10 +2143,10 @@
         <v>5</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="151" spans="2:4" x14ac:dyDescent="0.2">
@@ -2159,10 +2154,10 @@
         <v>11</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="152" spans="2:4" x14ac:dyDescent="0.2">
@@ -2170,10 +2165,10 @@
         <v>5</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="153" spans="2:4" x14ac:dyDescent="0.2">
@@ -2181,10 +2176,10 @@
         <v>11</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="154" spans="2:4" x14ac:dyDescent="0.2">
@@ -2192,10 +2187,10 @@
         <v>5</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="155" spans="2:4" x14ac:dyDescent="0.2">
@@ -2203,10 +2198,10 @@
         <v>11</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="156" spans="2:4" x14ac:dyDescent="0.2">
@@ -2214,7 +2209,7 @@
         <v>5</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>8</v>
@@ -2225,7 +2220,7 @@
         <v>11</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>8</v>
@@ -2236,10 +2231,10 @@
         <v>7</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="159" spans="2:4" x14ac:dyDescent="0.2">
@@ -2247,10 +2242,10 @@
         <v>7</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="160" spans="2:4" x14ac:dyDescent="0.2">
@@ -2258,7 +2253,7 @@
         <v>9</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D160" s="3"/>
     </row>
@@ -2267,7 +2262,7 @@
         <v>9</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
@@ -2275,7 +2270,7 @@
         <v>4</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
@@ -2284,13 +2279,13 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
@@ -2298,7 +2293,7 @@
         <v>9</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
@@ -2306,7 +2301,7 @@
         <v>4</v>
       </c>
       <c r="C166" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
@@ -2314,10 +2309,10 @@
         <v>7</v>
       </c>
       <c r="C167" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
@@ -2325,10 +2320,10 @@
         <v>7</v>
       </c>
       <c r="C168" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
@@ -2336,10 +2331,10 @@
         <v>7</v>
       </c>
       <c r="C169" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
@@ -2347,7 +2342,7 @@
         <v>9</v>
       </c>
       <c r="C170" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
@@ -2355,12 +2350,12 @@
         <v>4</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B172" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
@@ -2368,10 +2363,10 @@
         <v>5</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
@@ -2379,10 +2374,10 @@
         <v>11</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
@@ -2390,10 +2385,10 @@
         <v>5</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
@@ -2401,10 +2396,10 @@
         <v>11</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
@@ -2412,10 +2407,10 @@
         <v>5</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
@@ -2423,10 +2418,10 @@
         <v>11</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
@@ -2434,7 +2429,7 @@
         <v>5</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>8</v>
@@ -2445,7 +2440,7 @@
         <v>11</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>8</v>
@@ -2456,10 +2451,10 @@
         <v>7</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
@@ -2467,10 +2462,10 @@
         <v>7</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
@@ -2478,7 +2473,7 @@
         <v>9</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D183" s="3"/>
     </row>
@@ -2487,7 +2482,7 @@
         <v>9</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
@@ -2495,7 +2490,7 @@
         <v>4</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
@@ -2503,13 +2498,13 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
@@ -2517,7 +2512,7 @@
         <v>9</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
@@ -2525,7 +2520,7 @@
         <v>4</v>
       </c>
       <c r="C189" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
@@ -2533,10 +2528,10 @@
         <v>7</v>
       </c>
       <c r="C190" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
@@ -2544,10 +2539,10 @@
         <v>7</v>
       </c>
       <c r="C191" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
@@ -2555,10 +2550,10 @@
         <v>7</v>
       </c>
       <c r="C192" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="193" spans="2:4" x14ac:dyDescent="0.2">
@@ -2566,7 +2561,7 @@
         <v>9</v>
       </c>
       <c r="C193" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="194" spans="2:4" x14ac:dyDescent="0.2">
@@ -2574,12 +2569,12 @@
         <v>4</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="195" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B195" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="196" spans="2:4" x14ac:dyDescent="0.2">
@@ -2587,10 +2582,10 @@
         <v>5</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="197" spans="2:4" x14ac:dyDescent="0.2">
@@ -2598,10 +2593,10 @@
         <v>11</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="198" spans="2:4" x14ac:dyDescent="0.2">
@@ -2609,10 +2604,10 @@
         <v>5</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="199" spans="2:4" x14ac:dyDescent="0.2">
@@ -2620,10 +2615,10 @@
         <v>11</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="200" spans="2:4" x14ac:dyDescent="0.2">
@@ -2631,10 +2626,10 @@
         <v>5</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="201" spans="2:4" x14ac:dyDescent="0.2">
@@ -2642,10 +2637,10 @@
         <v>11</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="202" spans="2:4" x14ac:dyDescent="0.2">
@@ -2653,10 +2648,10 @@
         <v>5</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="203" spans="2:4" x14ac:dyDescent="0.2">
@@ -2664,10 +2659,10 @@
         <v>11</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="204" spans="2:4" x14ac:dyDescent="0.2">
@@ -2675,10 +2670,10 @@
         <v>7</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="205" spans="2:4" x14ac:dyDescent="0.2">
@@ -2686,10 +2681,10 @@
         <v>7</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="206" spans="2:4" x14ac:dyDescent="0.2">
@@ -2697,7 +2692,7 @@
         <v>9</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D206" s="3"/>
     </row>
@@ -2706,7 +2701,7 @@
         <v>9</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="208" spans="2:4" x14ac:dyDescent="0.2">
@@ -2714,7 +2709,7 @@
         <v>4</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
@@ -2723,13 +2718,13 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
@@ -2737,7 +2732,7 @@
         <v>9</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
@@ -2745,7 +2740,7 @@
         <v>4</v>
       </c>
       <c r="C212" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
@@ -2753,10 +2748,10 @@
         <v>7</v>
       </c>
       <c r="C213" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
@@ -2764,10 +2759,10 @@
         <v>7</v>
       </c>
       <c r="C214" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
@@ -2775,10 +2770,10 @@
         <v>7</v>
       </c>
       <c r="C215" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
@@ -2786,7 +2781,7 @@
         <v>9</v>
       </c>
       <c r="C216" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
@@ -2794,12 +2789,12 @@
         <v>4</v>
       </c>
       <c r="C217" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B218" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
@@ -2807,10 +2802,10 @@
         <v>5</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
@@ -2818,10 +2813,10 @@
         <v>11</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
@@ -2829,10 +2824,10 @@
         <v>5</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
@@ -2840,10 +2835,10 @@
         <v>11</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
@@ -2851,10 +2846,10 @@
         <v>5</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D223" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
@@ -2862,10 +2857,10 @@
         <v>11</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D224" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
@@ -2873,10 +2868,10 @@
         <v>5</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
@@ -2884,10 +2879,10 @@
         <v>11</v>
       </c>
       <c r="C226" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
@@ -2895,7 +2890,7 @@
         <v>5</v>
       </c>
       <c r="C227" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D227" s="2" t="s">
         <v>8</v>
@@ -2906,7 +2901,7 @@
         <v>11</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D228" s="2" t="s">
         <v>8</v>
@@ -2914,13 +2909,13 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B229" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C229" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
@@ -2928,10 +2923,10 @@
         <v>7</v>
       </c>
       <c r="C230" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D230" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
@@ -2939,7 +2934,7 @@
         <v>9</v>
       </c>
       <c r="C231" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D231" s="3"/>
     </row>
@@ -2948,7 +2943,7 @@
         <v>9</v>
       </c>
       <c r="C232" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
@@ -2956,7 +2951,7 @@
         <v>4</v>
       </c>
       <c r="C233" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
@@ -2964,13 +2959,13 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C235" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
@@ -2978,7 +2973,7 @@
         <v>9</v>
       </c>
       <c r="C236" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
@@ -2986,7 +2981,7 @@
         <v>4</v>
       </c>
       <c r="C237" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
@@ -2994,10 +2989,10 @@
         <v>7</v>
       </c>
       <c r="C238" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
@@ -3005,10 +3000,10 @@
         <v>7</v>
       </c>
       <c r="C239" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
@@ -3016,10 +3011,10 @@
         <v>7</v>
       </c>
       <c r="C240" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="241" spans="2:4" x14ac:dyDescent="0.2">
@@ -3027,7 +3022,7 @@
         <v>9</v>
       </c>
       <c r="C241" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="242" spans="2:4" x14ac:dyDescent="0.2">
@@ -3035,12 +3030,12 @@
         <v>4</v>
       </c>
       <c r="C242" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="243" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B243" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="244" spans="2:4" x14ac:dyDescent="0.2">
@@ -3048,10 +3043,10 @@
         <v>5</v>
       </c>
       <c r="C244" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="245" spans="2:4" x14ac:dyDescent="0.2">
@@ -3059,10 +3054,10 @@
         <v>11</v>
       </c>
       <c r="C245" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="246" spans="2:4" x14ac:dyDescent="0.2">
@@ -3070,10 +3065,10 @@
         <v>5</v>
       </c>
       <c r="C246" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="247" spans="2:4" x14ac:dyDescent="0.2">
@@ -3081,10 +3076,10 @@
         <v>11</v>
       </c>
       <c r="C247" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="248" spans="2:4" x14ac:dyDescent="0.2">
@@ -3092,10 +3087,10 @@
         <v>5</v>
       </c>
       <c r="C248" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D248" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="249" spans="2:4" x14ac:dyDescent="0.2">
@@ -3103,10 +3098,10 @@
         <v>11</v>
       </c>
       <c r="C249" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D249" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="250" spans="2:4" x14ac:dyDescent="0.2">
@@ -3114,10 +3109,10 @@
         <v>5</v>
       </c>
       <c r="C250" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="251" spans="2:4" x14ac:dyDescent="0.2">
@@ -3125,10 +3120,10 @@
         <v>11</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="252" spans="2:4" x14ac:dyDescent="0.2">
@@ -3136,7 +3131,7 @@
         <v>5</v>
       </c>
       <c r="C252" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D252" s="2" t="s">
         <v>8</v>
@@ -3147,7 +3142,7 @@
         <v>11</v>
       </c>
       <c r="C253" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D253" s="2" t="s">
         <v>8</v>
@@ -3158,10 +3153,10 @@
         <v>7</v>
       </c>
       <c r="C254" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="255" spans="2:4" x14ac:dyDescent="0.2">
@@ -3169,7 +3164,7 @@
         <v>9</v>
       </c>
       <c r="C255" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D255" s="3"/>
     </row>
@@ -3178,7 +3173,7 @@
         <v>9</v>
       </c>
       <c r="C256" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
@@ -3186,7 +3181,7 @@
         <v>4</v>
       </c>
       <c r="C257" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
@@ -3196,13 +3191,13 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B259" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C259" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
@@ -3210,7 +3205,7 @@
         <v>9</v>
       </c>
       <c r="C260" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
@@ -3218,7 +3213,7 @@
         <v>4</v>
       </c>
       <c r="C261" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
@@ -3226,10 +3221,10 @@
         <v>7</v>
       </c>
       <c r="C262" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
@@ -3237,10 +3232,10 @@
         <v>7</v>
       </c>
       <c r="C263" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
@@ -3248,10 +3243,10 @@
         <v>7</v>
       </c>
       <c r="C264" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
@@ -3259,7 +3254,7 @@
         <v>9</v>
       </c>
       <c r="C265" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.2">
@@ -3267,12 +3262,12 @@
         <v>4</v>
       </c>
       <c r="C266" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B267" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
@@ -3280,10 +3275,10 @@
         <v>5</v>
       </c>
       <c r="C268" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
@@ -3291,10 +3286,10 @@
         <v>11</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
@@ -3302,10 +3297,10 @@
         <v>5</v>
       </c>
       <c r="C270" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
@@ -3313,10 +3308,10 @@
         <v>11</v>
       </c>
       <c r="C271" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
@@ -3324,10 +3319,10 @@
         <v>5</v>
       </c>
       <c r="C272" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D272" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
@@ -3335,10 +3330,10 @@
         <v>11</v>
       </c>
       <c r="C273" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D273" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
@@ -3346,10 +3341,10 @@
         <v>5</v>
       </c>
       <c r="C274" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
@@ -3357,10 +3352,10 @@
         <v>11</v>
       </c>
       <c r="C275" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
@@ -3368,7 +3363,7 @@
         <v>5</v>
       </c>
       <c r="C276" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D276" s="2" t="s">
         <v>8</v>
@@ -3379,7 +3374,7 @@
         <v>11</v>
       </c>
       <c r="C277" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D277" s="2" t="s">
         <v>8</v>
@@ -3390,10 +3385,10 @@
         <v>7</v>
       </c>
       <c r="C278" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
@@ -3401,10 +3396,10 @@
         <v>7</v>
       </c>
       <c r="C279" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D279" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
@@ -3412,7 +3407,7 @@
         <v>9</v>
       </c>
       <c r="C280" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
@@ -3420,7 +3415,7 @@
         <v>4</v>
       </c>
       <c r="C281" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
@@ -3428,13 +3423,13 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B283" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C283" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
@@ -3442,7 +3437,7 @@
         <v>9</v>
       </c>
       <c r="C284" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
@@ -3450,7 +3445,7 @@
         <v>4</v>
       </c>
       <c r="C285" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
@@ -3458,10 +3453,10 @@
         <v>7</v>
       </c>
       <c r="C286" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
@@ -3469,10 +3464,10 @@
         <v>7</v>
       </c>
       <c r="C287" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
@@ -3480,10 +3475,10 @@
         <v>7</v>
       </c>
       <c r="C288" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="289" spans="2:4" x14ac:dyDescent="0.2">
@@ -3491,7 +3486,7 @@
         <v>9</v>
       </c>
       <c r="C289" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="290" spans="2:4" x14ac:dyDescent="0.2">
@@ -3499,12 +3494,12 @@
         <v>4</v>
       </c>
       <c r="C290" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="291" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B291" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="292" spans="2:4" x14ac:dyDescent="0.2">
@@ -3512,10 +3507,10 @@
         <v>7</v>
       </c>
       <c r="C292" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="293" spans="2:4" x14ac:dyDescent="0.2">
@@ -3523,10 +3518,10 @@
         <v>5</v>
       </c>
       <c r="C293" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="294" spans="2:4" x14ac:dyDescent="0.2">
@@ -3534,10 +3529,10 @@
         <v>11</v>
       </c>
       <c r="C294" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="295" spans="2:4" x14ac:dyDescent="0.2">
@@ -3545,10 +3540,10 @@
         <v>5</v>
       </c>
       <c r="C295" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="296" spans="2:4" x14ac:dyDescent="0.2">
@@ -3556,10 +3551,10 @@
         <v>11</v>
       </c>
       <c r="C296" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="297" spans="2:4" x14ac:dyDescent="0.2">
@@ -3567,10 +3562,10 @@
         <v>5</v>
       </c>
       <c r="C297" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D297" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="298" spans="2:4" x14ac:dyDescent="0.2">
@@ -3578,10 +3573,10 @@
         <v>11</v>
       </c>
       <c r="C298" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D298" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="299" spans="2:4" x14ac:dyDescent="0.2">
@@ -3589,10 +3584,10 @@
         <v>5</v>
       </c>
       <c r="C299" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="300" spans="2:4" x14ac:dyDescent="0.2">
@@ -3600,10 +3595,10 @@
         <v>11</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="301" spans="2:4" x14ac:dyDescent="0.2">
@@ -3611,7 +3606,7 @@
         <v>5</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D301" s="2" t="s">
         <v>8</v>
@@ -3622,7 +3617,7 @@
         <v>11</v>
       </c>
       <c r="C302" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D302" s="2" t="s">
         <v>8</v>
@@ -3633,10 +3628,10 @@
         <v>7</v>
       </c>
       <c r="C303" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D303" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="304" spans="2:4" x14ac:dyDescent="0.2">
@@ -3644,7 +3639,7 @@
         <v>9</v>
       </c>
       <c r="C304" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D304" s="3"/>
     </row>
@@ -3653,7 +3648,7 @@
         <v>9</v>
       </c>
       <c r="C305" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.2">
@@ -3661,7 +3656,7 @@
         <v>4</v>
       </c>
       <c r="C306" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.2">
@@ -3670,13 +3665,13 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A308" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B308" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C308" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.2">
@@ -3684,7 +3679,7 @@
         <v>9</v>
       </c>
       <c r="C309" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.2">
@@ -3692,7 +3687,7 @@
         <v>4</v>
       </c>
       <c r="C310" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.2">
@@ -3700,10 +3695,10 @@
         <v>7</v>
       </c>
       <c r="C311" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.2">
@@ -3711,10 +3706,10 @@
         <v>7</v>
       </c>
       <c r="C312" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.2">
@@ -3722,10 +3717,10 @@
         <v>7</v>
       </c>
       <c r="C313" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.2">
@@ -3733,7 +3728,7 @@
         <v>9</v>
       </c>
       <c r="C314" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.2">
@@ -3741,12 +3736,12 @@
         <v>4</v>
       </c>
       <c r="C315" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B316" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.2">
@@ -3754,10 +3749,10 @@
         <v>5</v>
       </c>
       <c r="C317" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.2">
@@ -3765,10 +3760,10 @@
         <v>11</v>
       </c>
       <c r="C318" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.2">
@@ -3776,10 +3771,10 @@
         <v>5</v>
       </c>
       <c r="C319" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.2">
@@ -3787,10 +3782,10 @@
         <v>11</v>
       </c>
       <c r="C320" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.2">
@@ -3798,10 +3793,10 @@
         <v>5</v>
       </c>
       <c r="C321" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D321" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.2">
@@ -3809,10 +3804,10 @@
         <v>11</v>
       </c>
       <c r="C322" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D322" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.2">
@@ -3820,10 +3815,10 @@
         <v>5</v>
       </c>
       <c r="C323" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.2">
@@ -3831,10 +3826,10 @@
         <v>11</v>
       </c>
       <c r="C324" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.2">
@@ -3842,7 +3837,7 @@
         <v>5</v>
       </c>
       <c r="C325" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D325" s="2" t="s">
         <v>8</v>
@@ -3853,7 +3848,7 @@
         <v>11</v>
       </c>
       <c r="C326" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D326" s="2" t="s">
         <v>8</v>
@@ -3864,10 +3859,10 @@
         <v>7</v>
       </c>
       <c r="C327" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.2">
@@ -3875,10 +3870,10 @@
         <v>7</v>
       </c>
       <c r="C328" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D328" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.2">
@@ -3886,7 +3881,7 @@
         <v>4</v>
       </c>
       <c r="C329" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D329" s="5"/>
     </row>
@@ -3895,7 +3890,7 @@
         <v>9</v>
       </c>
       <c r="C330" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D330" s="5"/>
     </row>
@@ -3904,7 +3899,7 @@
         <v>9</v>
       </c>
       <c r="C331" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D331" s="3"/>
     </row>
@@ -3913,7 +3908,7 @@
         <v>9</v>
       </c>
       <c r="C332" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.2">
@@ -3921,7 +3916,7 @@
         <v>4</v>
       </c>
       <c r="C333" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.2">
@@ -3930,13 +3925,13 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A335" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B335" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C335" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.2">
@@ -3944,7 +3939,7 @@
         <v>9</v>
       </c>
       <c r="C336" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="337" spans="2:4" x14ac:dyDescent="0.2">
@@ -3952,7 +3947,7 @@
         <v>4</v>
       </c>
       <c r="C337" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="338" spans="2:4" x14ac:dyDescent="0.2">
@@ -3960,10 +3955,10 @@
         <v>7</v>
       </c>
       <c r="C338" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="339" spans="2:4" x14ac:dyDescent="0.2">
@@ -3971,10 +3966,10 @@
         <v>7</v>
       </c>
       <c r="C339" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="340" spans="2:4" x14ac:dyDescent="0.2">
@@ -3982,10 +3977,10 @@
         <v>7</v>
       </c>
       <c r="C340" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="341" spans="2:4" x14ac:dyDescent="0.2">
@@ -3993,7 +3988,7 @@
         <v>9</v>
       </c>
       <c r="C341" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="342" spans="2:4" x14ac:dyDescent="0.2">
@@ -4001,12 +3996,12 @@
         <v>4</v>
       </c>
       <c r="C342" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="343" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B343" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="344" spans="2:4" x14ac:dyDescent="0.2">
@@ -4014,10 +4009,10 @@
         <v>5</v>
       </c>
       <c r="C344" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="345" spans="2:4" x14ac:dyDescent="0.2">
@@ -4025,10 +4020,10 @@
         <v>11</v>
       </c>
       <c r="C345" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="346" spans="2:4" x14ac:dyDescent="0.2">
@@ -4036,10 +4031,10 @@
         <v>5</v>
       </c>
       <c r="C346" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="347" spans="2:4" x14ac:dyDescent="0.2">
@@ -4047,10 +4042,10 @@
         <v>11</v>
       </c>
       <c r="C347" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="348" spans="2:4" x14ac:dyDescent="0.2">
@@ -4058,10 +4053,10 @@
         <v>5</v>
       </c>
       <c r="C348" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D348" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="349" spans="2:4" x14ac:dyDescent="0.2">
@@ -4069,10 +4064,10 @@
         <v>11</v>
       </c>
       <c r="C349" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D349" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="350" spans="2:4" x14ac:dyDescent="0.2">
@@ -4080,10 +4075,10 @@
         <v>5</v>
       </c>
       <c r="C350" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="351" spans="2:4" x14ac:dyDescent="0.2">
@@ -4091,10 +4086,10 @@
         <v>11</v>
       </c>
       <c r="C351" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="352" spans="2:4" x14ac:dyDescent="0.2">
@@ -4102,7 +4097,7 @@
         <v>5</v>
       </c>
       <c r="C352" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D352" s="2" t="s">
         <v>8</v>
@@ -4113,7 +4108,7 @@
         <v>11</v>
       </c>
       <c r="C353" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D353" s="2" t="s">
         <v>8</v>
@@ -4124,10 +4119,10 @@
         <v>7</v>
       </c>
       <c r="C354" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.2">
@@ -4135,10 +4130,10 @@
         <v>7</v>
       </c>
       <c r="C355" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D355" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.2">
@@ -4146,7 +4141,7 @@
         <v>9</v>
       </c>
       <c r="C356" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D356" s="3"/>
     </row>
@@ -4155,7 +4150,7 @@
         <v>9</v>
       </c>
       <c r="C357" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.2">
@@ -4163,18 +4158,18 @@
         <v>4</v>
       </c>
       <c r="C358" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A360" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B360" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C360" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.2">
@@ -4182,7 +4177,7 @@
         <v>9</v>
       </c>
       <c r="C361" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.2">
@@ -4190,7 +4185,7 @@
         <v>4</v>
       </c>
       <c r="C362" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.2">
@@ -4198,10 +4193,10 @@
         <v>7</v>
       </c>
       <c r="C363" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D363" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.2">
@@ -4209,10 +4204,10 @@
         <v>7</v>
       </c>
       <c r="C364" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.2">
@@ -4220,10 +4215,10 @@
         <v>7</v>
       </c>
       <c r="C365" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D365" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.2">
@@ -4231,7 +4226,7 @@
         <v>9</v>
       </c>
       <c r="C366" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.2">
@@ -4239,12 +4234,12 @@
         <v>4</v>
       </c>
       <c r="C367" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B368" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="369" spans="2:4" x14ac:dyDescent="0.2">
@@ -4252,10 +4247,10 @@
         <v>5</v>
       </c>
       <c r="C369" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D369" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="370" spans="2:4" x14ac:dyDescent="0.2">
@@ -4263,10 +4258,10 @@
         <v>11</v>
       </c>
       <c r="C370" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D370" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="371" spans="2:4" x14ac:dyDescent="0.2">
@@ -4274,10 +4269,10 @@
         <v>5</v>
       </c>
       <c r="C371" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D371" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="372" spans="2:4" x14ac:dyDescent="0.2">
@@ -4285,10 +4280,10 @@
         <v>11</v>
       </c>
       <c r="C372" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D372" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="373" spans="2:4" x14ac:dyDescent="0.2">
@@ -4296,10 +4291,10 @@
         <v>5</v>
       </c>
       <c r="C373" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D373" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="374" spans="2:4" x14ac:dyDescent="0.2">
@@ -4307,10 +4302,10 @@
         <v>11</v>
       </c>
       <c r="C374" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D374" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="375" spans="2:4" x14ac:dyDescent="0.2">
@@ -4318,10 +4313,10 @@
         <v>5</v>
       </c>
       <c r="C375" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D375" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="376" spans="2:4" x14ac:dyDescent="0.2">
@@ -4329,10 +4324,10 @@
         <v>11</v>
       </c>
       <c r="C376" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D376" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="377" spans="2:4" x14ac:dyDescent="0.2">
@@ -4340,7 +4335,7 @@
         <v>5</v>
       </c>
       <c r="C377" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D377" s="2" t="s">
         <v>8</v>
@@ -4351,7 +4346,7 @@
         <v>11</v>
       </c>
       <c r="C378" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D378" s="2" t="s">
         <v>8</v>
@@ -4362,10 +4357,10 @@
         <v>7</v>
       </c>
       <c r="C379" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D379" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="380" spans="2:4" x14ac:dyDescent="0.2">
@@ -4373,10 +4368,10 @@
         <v>7</v>
       </c>
       <c r="C380" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D380" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="381" spans="2:4" x14ac:dyDescent="0.2">
@@ -4384,7 +4379,7 @@
         <v>9</v>
       </c>
       <c r="C381" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D381" s="3"/>
     </row>
@@ -4393,7 +4388,7 @@
         <v>9</v>
       </c>
       <c r="C382" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="383" spans="2:4" x14ac:dyDescent="0.2">
@@ -4401,7 +4396,7 @@
         <v>4</v>
       </c>
       <c r="C383" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="384" spans="2:4" x14ac:dyDescent="0.2">
@@ -4409,13 +4404,13 @@
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A385" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B385" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C385" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.2">
@@ -4423,7 +4418,7 @@
         <v>9</v>
       </c>
       <c r="C386" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.2">
@@ -4431,7 +4426,7 @@
         <v>4</v>
       </c>
       <c r="C387" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.2">
@@ -4439,10 +4434,10 @@
         <v>7</v>
       </c>
       <c r="C388" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D388" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.2">
@@ -4450,10 +4445,10 @@
         <v>7</v>
       </c>
       <c r="C389" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D389" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.2">
@@ -4461,10 +4456,10 @@
         <v>7</v>
       </c>
       <c r="C390" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D390" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.2">
@@ -4472,7 +4467,7 @@
         <v>9</v>
       </c>
       <c r="C391" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.2">
@@ -4480,12 +4475,12 @@
         <v>4</v>
       </c>
       <c r="C392" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B393" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.2">
@@ -4493,10 +4488,10 @@
         <v>5</v>
       </c>
       <c r="C394" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D394" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.2">
@@ -4504,10 +4499,10 @@
         <v>11</v>
       </c>
       <c r="C395" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D395" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.2">
@@ -4515,10 +4510,10 @@
         <v>5</v>
       </c>
       <c r="C396" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D396" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.2">
@@ -4526,10 +4521,10 @@
         <v>11</v>
       </c>
       <c r="C397" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D397" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.2">
@@ -4537,10 +4532,10 @@
         <v>5</v>
       </c>
       <c r="C398" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D398" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.2">
@@ -4548,10 +4543,10 @@
         <v>11</v>
       </c>
       <c r="C399" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D399" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.2">
@@ -4559,10 +4554,10 @@
         <v>5</v>
       </c>
       <c r="C400" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D400" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.2">
@@ -4570,10 +4565,10 @@
         <v>11</v>
       </c>
       <c r="C401" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D401" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.2">
@@ -4581,7 +4576,7 @@
         <v>5</v>
       </c>
       <c r="C402" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D402" s="2" t="s">
         <v>8</v>
@@ -4592,7 +4587,7 @@
         <v>11</v>
       </c>
       <c r="C403" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D403" s="2" t="s">
         <v>8</v>
@@ -4603,10 +4598,10 @@
         <v>7</v>
       </c>
       <c r="C404" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D404" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
@@ -4614,10 +4609,10 @@
         <v>7</v>
       </c>
       <c r="C405" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D405" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">
@@ -4625,7 +4620,7 @@
         <v>9</v>
       </c>
       <c r="C406" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D406" s="3"/>
     </row>
@@ -4634,7 +4629,7 @@
         <v>9</v>
       </c>
       <c r="C407" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.2">
@@ -4642,7 +4637,7 @@
         <v>4</v>
       </c>
       <c r="C408" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.2">
@@ -4650,13 +4645,13 @@
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B410" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C410" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">
@@ -4664,7 +4659,7 @@
         <v>9</v>
       </c>
       <c r="C411" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">
@@ -4672,7 +4667,7 @@
         <v>4</v>
       </c>
       <c r="C412" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.2">
@@ -4680,10 +4675,10 @@
         <v>7</v>
       </c>
       <c r="C413" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D413" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.2">
@@ -4691,10 +4686,10 @@
         <v>7</v>
       </c>
       <c r="C414" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D414" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
@@ -4702,10 +4697,10 @@
         <v>7</v>
       </c>
       <c r="C415" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D415" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
@@ -4713,7 +4708,7 @@
         <v>9</v>
       </c>
       <c r="C416" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="417" spans="2:4" x14ac:dyDescent="0.2">
@@ -4721,12 +4716,12 @@
         <v>4</v>
       </c>
       <c r="C417" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="418" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B418" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="419" spans="2:4" x14ac:dyDescent="0.2">
@@ -4734,10 +4729,10 @@
         <v>5</v>
       </c>
       <c r="C419" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D419" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="420" spans="2:4" x14ac:dyDescent="0.2">
@@ -4745,10 +4740,10 @@
         <v>11</v>
       </c>
       <c r="C420" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D420" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="421" spans="2:4" x14ac:dyDescent="0.2">
@@ -4756,10 +4751,10 @@
         <v>5</v>
       </c>
       <c r="C421" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D421" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="422" spans="2:4" x14ac:dyDescent="0.2">
@@ -4767,10 +4762,10 @@
         <v>11</v>
       </c>
       <c r="C422" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D422" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="423" spans="2:4" x14ac:dyDescent="0.2">
@@ -4778,10 +4773,10 @@
         <v>5</v>
       </c>
       <c r="C423" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D423" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="424" spans="2:4" x14ac:dyDescent="0.2">
@@ -4789,10 +4784,10 @@
         <v>11</v>
       </c>
       <c r="C424" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D424" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="425" spans="2:4" x14ac:dyDescent="0.2">
@@ -4800,10 +4795,10 @@
         <v>5</v>
       </c>
       <c r="C425" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D425" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="426" spans="2:4" x14ac:dyDescent="0.2">
@@ -4811,10 +4806,10 @@
         <v>11</v>
       </c>
       <c r="C426" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D426" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="427" spans="2:4" x14ac:dyDescent="0.2">
@@ -4822,7 +4817,7 @@
         <v>5</v>
       </c>
       <c r="C427" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D427" s="2" t="s">
         <v>8</v>
@@ -4833,7 +4828,7 @@
         <v>11</v>
       </c>
       <c r="C428" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D428" s="2" t="s">
         <v>8</v>
@@ -4844,10 +4839,10 @@
         <v>7</v>
       </c>
       <c r="C429" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D429" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="430" spans="2:4" x14ac:dyDescent="0.2">
@@ -4855,10 +4850,10 @@
         <v>7</v>
       </c>
       <c r="C430" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D430" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="431" spans="2:4" x14ac:dyDescent="0.2">
@@ -4866,7 +4861,7 @@
         <v>9</v>
       </c>
       <c r="C431" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D431" s="3"/>
     </row>
@@ -4875,7 +4870,7 @@
         <v>9</v>
       </c>
       <c r="C432" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.2">
@@ -4883,7 +4878,7 @@
         <v>4</v>
       </c>
       <c r="C433" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.2">
@@ -4891,13 +4886,13 @@
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B435" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C435" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.2">
@@ -4905,7 +4900,7 @@
         <v>9</v>
       </c>
       <c r="C436" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.2">
@@ -4913,7 +4908,7 @@
         <v>4</v>
       </c>
       <c r="C437" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.2">
@@ -4921,10 +4916,10 @@
         <v>7</v>
       </c>
       <c r="C438" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D438" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.2">
@@ -4932,10 +4927,10 @@
         <v>7</v>
       </c>
       <c r="C439" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D439" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.2">
@@ -4943,10 +4938,10 @@
         <v>7</v>
       </c>
       <c r="C440" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D440" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.2">
@@ -4954,7 +4949,7 @@
         <v>9</v>
       </c>
       <c r="C441" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.2">
@@ -4962,12 +4957,12 @@
         <v>4</v>
       </c>
       <c r="C442" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B443" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.2">
@@ -4975,10 +4970,10 @@
         <v>5</v>
       </c>
       <c r="C444" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D444" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.2">
@@ -4986,10 +4981,10 @@
         <v>11</v>
       </c>
       <c r="C445" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D445" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.2">
@@ -4997,10 +4992,10 @@
         <v>5</v>
       </c>
       <c r="C446" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D446" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.2">
@@ -5008,10 +5003,10 @@
         <v>11</v>
       </c>
       <c r="C447" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D447" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.2">
@@ -5019,10 +5014,10 @@
         <v>5</v>
       </c>
       <c r="C448" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D448" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.2">
@@ -5030,10 +5025,10 @@
         <v>11</v>
       </c>
       <c r="C449" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D449" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.2">
@@ -5041,10 +5036,10 @@
         <v>5</v>
       </c>
       <c r="C450" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D450" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.2">
@@ -5052,10 +5047,10 @@
         <v>11</v>
       </c>
       <c r="C451" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D451" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.2">
@@ -5063,7 +5058,7 @@
         <v>5</v>
       </c>
       <c r="C452" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D452" s="2" t="s">
         <v>8</v>
@@ -5074,7 +5069,7 @@
         <v>11</v>
       </c>
       <c r="C453" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D453" s="2" t="s">
         <v>8</v>
@@ -5085,10 +5080,10 @@
         <v>7</v>
       </c>
       <c r="C454" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D454" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.2">
@@ -5096,10 +5091,10 @@
         <v>7</v>
       </c>
       <c r="C455" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D455" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.2">
@@ -5107,7 +5102,7 @@
         <v>9</v>
       </c>
       <c r="C456" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D456" s="3"/>
     </row>
@@ -5116,7 +5111,7 @@
         <v>9</v>
       </c>
       <c r="C457" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.2">
@@ -5124,7 +5119,7 @@
         <v>4</v>
       </c>
       <c r="C458" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.2">
@@ -5132,13 +5127,13 @@
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A460" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B460" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C460" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.2">
@@ -5146,7 +5141,7 @@
         <v>9</v>
       </c>
       <c r="C461" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.2">
@@ -5154,7 +5149,7 @@
         <v>4</v>
       </c>
       <c r="C462" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.2">
@@ -5162,10 +5157,10 @@
         <v>7</v>
       </c>
       <c r="C463" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D463" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.2">
@@ -5173,10 +5168,10 @@
         <v>7</v>
       </c>
       <c r="C464" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D464" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="465" spans="2:4" x14ac:dyDescent="0.2">
@@ -5184,10 +5179,10 @@
         <v>7</v>
       </c>
       <c r="C465" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D465" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="466" spans="2:4" x14ac:dyDescent="0.2">
@@ -5195,7 +5190,7 @@
         <v>9</v>
       </c>
       <c r="C466" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="467" spans="2:4" x14ac:dyDescent="0.2">
@@ -5203,12 +5198,12 @@
         <v>4</v>
       </c>
       <c r="C467" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="468" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B468" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="469" spans="2:4" x14ac:dyDescent="0.2">
@@ -5216,10 +5211,10 @@
         <v>5</v>
       </c>
       <c r="C469" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D469" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="470" spans="2:4" x14ac:dyDescent="0.2">
@@ -5227,10 +5222,10 @@
         <v>11</v>
       </c>
       <c r="C470" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D470" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="471" spans="2:4" x14ac:dyDescent="0.2">
@@ -5238,10 +5233,10 @@
         <v>5</v>
       </c>
       <c r="C471" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D471" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="472" spans="2:4" x14ac:dyDescent="0.2">
@@ -5249,10 +5244,10 @@
         <v>11</v>
       </c>
       <c r="C472" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D472" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="473" spans="2:4" x14ac:dyDescent="0.2">
@@ -5260,10 +5255,10 @@
         <v>5</v>
       </c>
       <c r="C473" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D473" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="474" spans="2:4" x14ac:dyDescent="0.2">
@@ -5271,10 +5266,10 @@
         <v>11</v>
       </c>
       <c r="C474" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D474" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="475" spans="2:4" x14ac:dyDescent="0.2">
@@ -5282,10 +5277,10 @@
         <v>5</v>
       </c>
       <c r="C475" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D475" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="476" spans="2:4" x14ac:dyDescent="0.2">
@@ -5293,10 +5288,10 @@
         <v>11</v>
       </c>
       <c r="C476" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D476" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="477" spans="2:4" x14ac:dyDescent="0.2">
@@ -5304,10 +5299,10 @@
         <v>5</v>
       </c>
       <c r="C477" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D477" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="478" spans="2:4" x14ac:dyDescent="0.2">
@@ -5315,10 +5310,10 @@
         <v>11</v>
       </c>
       <c r="C478" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D478" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="479" spans="2:4" x14ac:dyDescent="0.2">
@@ -5326,10 +5321,10 @@
         <v>7</v>
       </c>
       <c r="C479" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D479" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="480" spans="2:4" x14ac:dyDescent="0.2">
@@ -5337,10 +5332,10 @@
         <v>7</v>
       </c>
       <c r="C480" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D480" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.2">
@@ -5348,7 +5343,7 @@
         <v>9</v>
       </c>
       <c r="C481" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D481" s="3"/>
     </row>
@@ -5357,7 +5352,7 @@
         <v>9</v>
       </c>
       <c r="C482" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.2">
@@ -5365,7 +5360,7 @@
         <v>4</v>
       </c>
       <c r="C483" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.2">
@@ -5373,13 +5368,13 @@
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A485" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B485" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C485" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.2">
@@ -5387,7 +5382,7 @@
         <v>9</v>
       </c>
       <c r="C486" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.2">
@@ -5395,7 +5390,7 @@
         <v>4</v>
       </c>
       <c r="C487" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.2">
@@ -5403,10 +5398,10 @@
         <v>7</v>
       </c>
       <c r="C488" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D488" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.2">
@@ -5414,10 +5409,10 @@
         <v>7</v>
       </c>
       <c r="C489" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D489" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.2">
@@ -5425,10 +5420,10 @@
         <v>7</v>
       </c>
       <c r="C490" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D490" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.2">
@@ -5436,7 +5431,7 @@
         <v>9</v>
       </c>
       <c r="C491" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.2">
@@ -5444,12 +5439,12 @@
         <v>4</v>
       </c>
       <c r="C492" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B493" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.2">
@@ -5457,10 +5452,10 @@
         <v>7</v>
       </c>
       <c r="C494" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D494" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.2">
@@ -5468,7 +5463,7 @@
         <v>4</v>
       </c>
       <c r="C495" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D495" s="3"/>
     </row>
@@ -5477,10 +5472,10 @@
         <v>5</v>
       </c>
       <c r="C496" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D496" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="497" spans="2:4" x14ac:dyDescent="0.2">
@@ -5488,10 +5483,10 @@
         <v>11</v>
       </c>
       <c r="C497" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D497" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="498" spans="2:4" x14ac:dyDescent="0.2">
@@ -5499,10 +5494,10 @@
         <v>5</v>
       </c>
       <c r="C498" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D498" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="499" spans="2:4" x14ac:dyDescent="0.2">
@@ -5510,10 +5505,10 @@
         <v>11</v>
       </c>
       <c r="C499" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D499" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="500" spans="2:4" x14ac:dyDescent="0.2">
@@ -5521,10 +5516,10 @@
         <v>5</v>
       </c>
       <c r="C500" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D500" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="501" spans="2:4" x14ac:dyDescent="0.2">
@@ -5532,10 +5527,10 @@
         <v>11</v>
       </c>
       <c r="C501" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D501" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="502" spans="2:4" x14ac:dyDescent="0.2">
@@ -5543,10 +5538,10 @@
         <v>5</v>
       </c>
       <c r="C502" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D502" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="503" spans="2:4" x14ac:dyDescent="0.2">
@@ -5554,10 +5549,10 @@
         <v>11</v>
       </c>
       <c r="C503" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D503" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="504" spans="2:4" x14ac:dyDescent="0.2">
@@ -5565,10 +5560,10 @@
         <v>5</v>
       </c>
       <c r="C504" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D504" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="505" spans="2:4" x14ac:dyDescent="0.2">
@@ -5576,10 +5571,10 @@
         <v>11</v>
       </c>
       <c r="C505" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D505" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="506" spans="2:4" x14ac:dyDescent="0.2">
@@ -5587,7 +5582,7 @@
         <v>5</v>
       </c>
       <c r="C506" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D506" s="2" t="s">
         <v>8</v>
@@ -5598,7 +5593,7 @@
         <v>11</v>
       </c>
       <c r="C507" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D507" s="2" t="s">
         <v>8</v>
@@ -5609,10 +5604,10 @@
         <v>7</v>
       </c>
       <c r="C508" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D508" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="509" spans="2:4" x14ac:dyDescent="0.2">
@@ -5620,7 +5615,7 @@
         <v>9</v>
       </c>
       <c r="C509" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D509" s="3"/>
     </row>
@@ -5629,7 +5624,7 @@
         <v>9</v>
       </c>
       <c r="C510" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="511" spans="2:4" x14ac:dyDescent="0.2">
@@ -5637,7 +5632,7 @@
         <v>4</v>
       </c>
       <c r="C511" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="512" spans="2:4" x14ac:dyDescent="0.2">
@@ -8147,13 +8142,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D1" s="2"/>
     </row>
@@ -8163,10 +8158,10 @@
         <v>7</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -8175,10 +8170,10 @@
         <v>7</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -8187,7 +8182,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D4" s="2"/>
     </row>
@@ -8197,7 +8192,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D5" s="2"/>
     </row>
@@ -8208,13 +8203,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D26" s="2"/>
     </row>
@@ -8224,10 +8219,10 @@
         <v>7</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -8236,10 +8231,10 @@
         <v>7</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -8248,7 +8243,7 @@
         <v>9</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D29" s="2"/>
     </row>
@@ -8258,7 +8253,7 @@
         <v>4</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D30" s="2"/>
     </row>
@@ -8267,13 +8262,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D52" s="2"/>
     </row>
@@ -8283,10 +8278,10 @@
         <v>7</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -8295,10 +8290,10 @@
         <v>7</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -8307,7 +8302,7 @@
         <v>9</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D55" s="2"/>
     </row>
@@ -8317,7 +8312,7 @@
         <v>4</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D56" s="2"/>
     </row>
@@ -8329,13 +8324,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D72" s="2"/>
     </row>
@@ -8345,10 +8340,10 @@
         <v>7</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -8357,10 +8352,10 @@
         <v>7</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -8369,7 +8364,7 @@
         <v>9</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D75" s="2"/>
     </row>
@@ -8379,7 +8374,7 @@
         <v>4</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D76" s="2"/>
     </row>
@@ -8391,13 +8386,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D92" s="2"/>
     </row>
@@ -8407,10 +8402,10 @@
         <v>7</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -8419,10 +8414,10 @@
         <v>7</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -8431,7 +8426,7 @@
         <v>9</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D95" s="2"/>
     </row>
@@ -8441,7 +8436,7 @@
         <v>4</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D96" s="2"/>
     </row>
@@ -8453,13 +8448,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D112" s="2"/>
     </row>
@@ -8469,10 +8464,10 @@
         <v>7</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -8481,10 +8476,10 @@
         <v>7</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
@@ -8493,7 +8488,7 @@
         <v>9</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D115" s="2"/>
     </row>
@@ -8503,7 +8498,7 @@
         <v>4</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D116" s="2"/>
     </row>
@@ -8514,13 +8509,13 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D132" s="2"/>
     </row>
@@ -8530,10 +8525,10 @@
         <v>7</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
@@ -8542,10 +8537,10 @@
         <v>7</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
@@ -8554,7 +8549,7 @@
         <v>9</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D135" s="2"/>
     </row>
@@ -8564,7 +8559,7 @@
         <v>4</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D136" s="2"/>
     </row>
@@ -8575,13 +8570,13 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D152" s="2"/>
     </row>
@@ -8591,10 +8586,10 @@
         <v>7</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
@@ -8603,10 +8598,10 @@
         <v>7</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
@@ -8615,7 +8610,7 @@
         <v>9</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D155" s="2"/>
     </row>
@@ -8625,7 +8620,7 @@
         <v>4</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D156" s="2"/>
     </row>
@@ -8636,13 +8631,13 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D174" s="2"/>
     </row>
@@ -8652,10 +8647,10 @@
         <v>7</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
@@ -8664,10 +8659,10 @@
         <v>7</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
@@ -8676,7 +8671,7 @@
         <v>9</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D177" s="2"/>
     </row>
@@ -8686,7 +8681,7 @@
         <v>4</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D178" s="2"/>
     </row>
@@ -8697,13 +8692,13 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D195" s="2"/>
     </row>
@@ -8713,10 +8708,10 @@
         <v>7</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
@@ -8725,10 +8720,10 @@
         <v>7</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
@@ -8737,7 +8732,7 @@
         <v>9</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D198" s="2"/>
     </row>
@@ -8747,7 +8742,7 @@
         <v>4</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D199" s="2"/>
     </row>
@@ -8757,13 +8752,13 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D216" s="2"/>
     </row>
@@ -8773,10 +8768,10 @@
         <v>7</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
@@ -8785,10 +8780,10 @@
         <v>7</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
@@ -8797,7 +8792,7 @@
         <v>9</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D219" s="2"/>
     </row>
@@ -8807,7 +8802,7 @@
         <v>4</v>
       </c>
       <c r="C220" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D220" s="2"/>
     </row>
@@ -8818,13 +8813,13 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B238" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C238" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D238" s="2"/>
     </row>
@@ -8834,10 +8829,10 @@
         <v>7</v>
       </c>
       <c r="C239" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
@@ -8846,10 +8841,10 @@
         <v>7</v>
       </c>
       <c r="C240" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
@@ -8858,7 +8853,7 @@
         <v>9</v>
       </c>
       <c r="C241" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D241" s="2"/>
     </row>
@@ -8868,7 +8863,7 @@
         <v>4</v>
       </c>
       <c r="C242" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D242" s="2"/>
     </row>
@@ -8878,13 +8873,13 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B262" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C262" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D262" s="2"/>
     </row>
@@ -8894,10 +8889,10 @@
         <v>7</v>
       </c>
       <c r="C263" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
@@ -8906,10 +8901,10 @@
         <v>7</v>
       </c>
       <c r="C264" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
@@ -8918,7 +8913,7 @@
         <v>9</v>
       </c>
       <c r="C265" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D265" s="2"/>
     </row>
@@ -8928,7 +8923,7 @@
         <v>4</v>
       </c>
       <c r="C266" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D266" s="2"/>
     </row>
@@ -8937,13 +8932,13 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B284" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C284" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D284" s="2"/>
     </row>
@@ -8953,10 +8948,10 @@
         <v>7</v>
       </c>
       <c r="C285" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
@@ -8965,10 +8960,10 @@
         <v>7</v>
       </c>
       <c r="C286" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
@@ -8977,7 +8972,7 @@
         <v>9</v>
       </c>
       <c r="C287" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D287" s="2"/>
     </row>
@@ -8987,7 +8982,7 @@
         <v>4</v>
       </c>
       <c r="C288" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D288" s="2"/>
     </row>
@@ -8999,13 +8994,13 @@
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A306" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B306" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C306" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D306" s="2"/>
     </row>
@@ -9015,10 +9010,10 @@
         <v>7</v>
       </c>
       <c r="C307" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.2">
@@ -9027,10 +9022,10 @@
         <v>7</v>
       </c>
       <c r="C308" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.2">
@@ -9039,7 +9034,7 @@
         <v>9</v>
       </c>
       <c r="C309" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D309" s="2"/>
     </row>
@@ -9049,7 +9044,7 @@
         <v>4</v>
       </c>
       <c r="C310" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D310" s="2"/>
     </row>
@@ -9061,13 +9056,13 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A328" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B328" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C328" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D328" s="2"/>
     </row>
@@ -9077,10 +9072,10 @@
         <v>7</v>
       </c>
       <c r="C329" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.2">
@@ -9089,10 +9084,10 @@
         <v>7</v>
       </c>
       <c r="C330" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.2">
@@ -9101,7 +9096,7 @@
         <v>9</v>
       </c>
       <c r="C331" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D331" s="2"/>
     </row>
@@ -9111,7 +9106,7 @@
         <v>4</v>
       </c>
       <c r="C332" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D332" s="2"/>
     </row>
@@ -9123,13 +9118,13 @@
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A350" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B350" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C350" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D350" s="2"/>
     </row>
@@ -9139,10 +9134,10 @@
         <v>7</v>
       </c>
       <c r="C351" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.2">
@@ -9151,10 +9146,10 @@
         <v>7</v>
       </c>
       <c r="C352" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.2">
@@ -9163,7 +9158,7 @@
         <v>9</v>
       </c>
       <c r="C353" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D353" s="2"/>
     </row>
@@ -9173,7 +9168,7 @@
         <v>4</v>
       </c>
       <c r="C354" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D354" s="2"/>
     </row>
@@ -9185,13 +9180,13 @@
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A372" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B372" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C372" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D372" s="2"/>
     </row>
@@ -9201,10 +9196,10 @@
         <v>7</v>
       </c>
       <c r="C373" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D373" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.2">
@@ -9213,10 +9208,10 @@
         <v>7</v>
       </c>
       <c r="C374" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D374" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.2">
@@ -9225,7 +9220,7 @@
         <v>9</v>
       </c>
       <c r="C375" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D375" s="2"/>
     </row>
@@ -9235,7 +9230,7 @@
         <v>4</v>
       </c>
       <c r="C376" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D376" s="2"/>
     </row>
@@ -9247,13 +9242,13 @@
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A394" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B394" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C394" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D394" s="2"/>
     </row>
@@ -9263,10 +9258,10 @@
         <v>7</v>
       </c>
       <c r="C395" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D395" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.2">
@@ -9275,10 +9270,10 @@
         <v>7</v>
       </c>
       <c r="C396" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D396" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.2">
@@ -9287,7 +9282,7 @@
         <v>9</v>
       </c>
       <c r="C397" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D397" s="2"/>
     </row>
@@ -9297,7 +9292,7 @@
         <v>4</v>
       </c>
       <c r="C398" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D398" s="2"/>
     </row>
